--- a/plot-data-2019.xlsx
+++ b/plot-data-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjs23\Documents\R\slash-wall-veg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjs23\Documents\R\slash-wall-vegetation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="94">
   <si>
     <t>location</t>
   </si>
@@ -98,9 +98,6 @@
     <t>interior</t>
   </si>
   <si>
-    <t>plot</t>
-  </si>
-  <si>
     <t>2020.04.20</t>
   </si>
   <si>
@@ -113,13 +110,7 @@
     <t>2020.04.23</t>
   </si>
   <si>
-    <t>GL</t>
-  </si>
-  <si>
     <t>2020.04.06</t>
-  </si>
-  <si>
-    <t>RP</t>
   </si>
   <si>
     <t>2020.05.28</t>
@@ -152,9 +143,6 @@
     <t>rhus</t>
   </si>
   <si>
-    <t>snow</t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
   </si>
   <si>
     <t>2020.06.09</t>
-  </si>
-  <si>
-    <t>CWB</t>
   </si>
   <si>
     <t>2020.06.29</t>
@@ -212,13 +197,7 @@
     <t>2020.06.23</t>
   </si>
   <si>
-    <t>Boot</t>
-  </si>
-  <si>
     <t>2020.07.14</t>
-  </si>
-  <si>
-    <t>CRP</t>
   </si>
   <si>
     <t>2020.07.16</t>
@@ -227,16 +206,10 @@
     <t>2020.07.17</t>
   </si>
   <si>
-    <t>CGL</t>
-  </si>
-  <si>
     <t>2020.07.10</t>
   </si>
   <si>
     <t>2020.07.13</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>2020.06.25</t>
@@ -319,6 +292,30 @@
   <si>
     <t>buck</t>
   </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>cgl</t>
+  </si>
+  <si>
+    <t>crp</t>
+  </si>
+  <si>
+    <t>cwb</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
 </sst>
 </file>
 
@@ -356,18 +353,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,7 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,9 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -724,9 +712,9 @@
   <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3480" topLeftCell="A55" activePane="bottomLeft"/>
-      <selection activeCell="S2" sqref="S2:S8"/>
-      <selection pane="bottomLeft" activeCell="O84" sqref="O84"/>
+      <pane ySplit="1260" topLeftCell="A129"/>
+      <selection activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -757,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -772,34 +760,34 @@
         <v>5</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="Q1" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>6</v>
@@ -823,21 +811,21 @@
         <v>12</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
         <v>2019</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -858,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
@@ -900,13 +888,13 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2">
         <v>2019</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -927,10 +915,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
@@ -966,13 +954,13 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -996,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>16</v>
@@ -1035,13 +1023,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>2019</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -1062,10 +1050,10 @@
         <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
@@ -1101,13 +1089,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -1131,13 +1119,13 @@
         <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>15</v>
@@ -1155,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T6" s="2">
         <v>10</v>
@@ -1176,13 +1164,13 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -1194,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
@@ -1203,10 +1191,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>16</v>
@@ -1215,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>15</v>
@@ -1227,7 +1215,7 @@
         <v>15</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T7" s="2">
         <v>10</v>
@@ -1245,13 +1233,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2">
         <v>2019</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -1272,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>16</v>
@@ -1305,13 +1293,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2">
         <v>2019</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -1323,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
@@ -1332,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>16</v>
@@ -1371,13 +1359,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2">
         <v>2019</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1389,10 +1377,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -1401,7 +1389,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>16</v>
@@ -1419,7 +1407,7 @@
         <v>15</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T10" s="2">
         <v>10</v>
@@ -1437,13 +1425,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2">
         <v>2019</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1464,10 +1452,10 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>16</v>
@@ -1488,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T11" s="2">
         <v>10</v>
@@ -1506,13 +1494,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2">
         <v>2019</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -1533,10 +1521,10 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>16</v>
@@ -1572,13 +1560,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2">
         <v>2019</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -1602,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>16</v>
@@ -1644,13 +1632,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2">
         <v>2019</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -1668,19 +1656,19 @@
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>15</v>
@@ -1713,13 +1701,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2">
         <v>2019</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -1740,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>16</v>
@@ -1764,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T15" s="2">
         <v>10</v>
@@ -1782,13 +1770,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
         <v>2019</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -1809,19 +1797,19 @@
         <v>17</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>14</v>
@@ -1833,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T16" s="2">
         <v>10</v>
@@ -1854,13 +1842,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2">
         <v>2019</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
@@ -1881,16 +1869,16 @@
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>17</v>
@@ -1926,13 +1914,13 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2">
         <v>2019</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -1953,10 +1941,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>16</v>
@@ -1992,13 +1980,13 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2">
         <v>2019</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -2019,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>16</v>
@@ -2061,13 +2049,13 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2">
         <v>2019</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -2088,10 +2076,10 @@
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>15</v>
@@ -2130,13 +2118,13 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2">
         <v>2019</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
@@ -2157,10 +2145,10 @@
         <v>14</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>16</v>
@@ -2181,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T21" s="2">
         <v>10</v>
@@ -2199,13 +2187,13 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2">
         <v>2019</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
@@ -2229,7 +2217,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>16</v>
@@ -2265,16 +2253,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2">
         <v>2019</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2">
         <v>950</v>
@@ -2295,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>16</v>
@@ -2331,16 +2319,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2">
         <v>2019</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24" s="2">
         <v>951</v>
@@ -2358,10 +2346,10 @@
         <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>16</v>
@@ -2382,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T24" s="2">
         <v>10</v>
@@ -2400,16 +2388,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2">
         <v>2019</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2">
         <v>952</v>
@@ -2427,10 +2415,10 @@
         <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>16</v>
@@ -2466,16 +2454,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2">
         <v>2019</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2">
         <v>953</v>
@@ -2496,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>16</v>
@@ -2517,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T26" s="2">
         <v>10</v>
@@ -2541,16 +2529,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2">
         <v>2019</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2">
         <v>954</v>
@@ -2568,10 +2556,10 @@
         <v>17</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>16</v>
@@ -2592,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T27" s="2">
         <v>10</v>
@@ -2610,16 +2598,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2">
         <v>2019</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2">
         <v>955</v>
@@ -2637,10 +2625,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>16</v>
@@ -2676,16 +2664,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2">
         <v>2019</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2">
         <v>956</v>
@@ -2703,16 +2691,16 @@
         <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>16</v>
@@ -2745,16 +2733,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B30" s="2">
         <v>2019</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2">
         <v>957</v>
@@ -2772,10 +2760,10 @@
         <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>16</v>
@@ -2796,7 +2784,7 @@
         <v>15</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T30" s="2">
         <v>10</v>
@@ -2817,16 +2805,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2">
         <v>2019</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2">
         <v>958</v>
@@ -2844,10 +2832,10 @@
         <v>17</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>16</v>
@@ -2886,16 +2874,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2">
         <v>2019</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2">
         <v>959</v>
@@ -2913,10 +2901,10 @@
         <v>15</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>16</v>
@@ -2955,16 +2943,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2">
         <v>2019</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2">
         <v>960</v>
@@ -2982,10 +2970,10 @@
         <v>17</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>16</v>
@@ -3006,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T33" s="2">
         <v>10</v>
@@ -3024,16 +3012,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2">
         <v>2019</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2">
         <v>961</v>
@@ -3051,16 +3039,16 @@
         <v>14</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>14</v>
@@ -3096,16 +3084,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2">
         <v>2019</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2">
         <v>962</v>
@@ -3123,10 +3111,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>16</v>
@@ -3156,16 +3144,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2">
         <v>2019</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2">
         <v>963</v>
@@ -3180,13 +3168,13 @@
         <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>16</v>
@@ -3222,16 +3210,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2">
         <v>2019</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2">
         <v>964</v>
@@ -3249,10 +3237,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>16</v>
@@ -3282,16 +3270,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2">
         <v>2019</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2">
         <v>965</v>
@@ -3312,13 +3300,13 @@
         <v>17</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>15</v>
@@ -3354,16 +3342,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2">
         <v>2019</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2">
         <v>729</v>
@@ -3384,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>16</v>
@@ -3420,16 +3408,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2">
         <v>2019</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2">
         <v>730</v>
@@ -3450,7 +3438,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>16</v>
@@ -3486,16 +3474,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2">
         <v>2019</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2">
         <v>731</v>
@@ -3513,10 +3501,10 @@
         <v>17</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>16</v>
@@ -3537,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T41" s="2">
         <v>10</v>
@@ -3555,16 +3543,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2">
         <v>2019</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2">
         <v>732</v>
@@ -3573,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
@@ -3585,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>16</v>
@@ -3621,16 +3609,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2">
         <v>2019</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2">
         <v>733</v>
@@ -3639,7 +3627,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>14</v>
@@ -3651,7 +3639,7 @@
         <v>17</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>16</v>
@@ -3687,16 +3675,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2">
         <v>2019</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2">
         <v>734</v>
@@ -3717,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>16</v>
@@ -3753,16 +3741,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2">
         <v>2019</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2">
         <v>735</v>
@@ -3783,7 +3771,7 @@
         <v>14</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>16</v>
@@ -3804,7 +3792,7 @@
         <v>15</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T45" s="2">
         <v>10</v>
@@ -3822,16 +3810,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2">
         <v>2019</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2">
         <v>736</v>
@@ -3846,13 +3834,13 @@
         <v>15</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>16</v>
@@ -3888,16 +3876,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2">
         <v>2019</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E47" s="2">
         <v>737</v>
@@ -3912,13 +3900,13 @@
         <v>15</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>16</v>
@@ -3954,16 +3942,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2">
         <v>2019</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2">
         <v>738</v>
@@ -3984,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>16</v>
@@ -4023,16 +4011,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2">
         <v>2019</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E49" s="2">
         <v>739</v>
@@ -4053,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>16</v>
@@ -4086,16 +4074,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2">
         <v>2019</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2">
         <v>740</v>
@@ -4116,7 +4104,7 @@
         <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>16</v>
@@ -4152,16 +4140,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2">
         <v>2019</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2">
         <v>741</v>
@@ -4182,7 +4170,7 @@
         <v>17</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>16</v>
@@ -4194,7 +4182,7 @@
         <v>316</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2">
         <v>833</v>
@@ -4218,16 +4206,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2">
         <v>2019</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E52" s="2">
         <v>742</v>
@@ -4248,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>16</v>
@@ -4260,7 +4248,7 @@
         <v>316</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2">
         <v>833</v>
@@ -4284,16 +4272,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2">
         <v>2019</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2">
         <v>743</v>
@@ -4314,7 +4302,7 @@
         <v>17</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>16</v>
@@ -4353,16 +4341,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2">
         <v>2019</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2">
         <v>744</v>
@@ -4383,7 +4371,7 @@
         <v>17</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>16</v>
@@ -4404,7 +4392,7 @@
         <v>15</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T54" s="2">
         <v>10</v>
@@ -4422,16 +4410,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2">
         <v>2019</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2">
         <v>745</v>
@@ -4452,7 +4440,7 @@
         <v>17</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>16</v>
@@ -4488,16 +4476,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E56" s="2">
         <v>746</v>
@@ -4518,7 +4506,7 @@
         <v>14</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>16</v>
@@ -4557,16 +4545,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E57" s="2">
         <v>747</v>
@@ -4581,13 +4569,13 @@
         <v>14</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>16</v>
@@ -4623,16 +4611,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E58" s="2">
         <v>748</v>
@@ -4647,13 +4635,13 @@
         <v>17</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>16</v>
@@ -4692,16 +4680,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E59" s="2">
         <v>750</v>
@@ -4716,13 +4704,13 @@
         <v>15</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>16</v>
@@ -4761,16 +4749,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E60" s="2">
         <v>751</v>
@@ -4785,13 +4773,13 @@
         <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>16</v>
@@ -4827,16 +4815,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E61" s="2">
         <v>752</v>
@@ -4857,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>16</v>
@@ -4887,16 +4875,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B62" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E62" s="2">
         <v>753</v>
@@ -4917,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>16</v>
@@ -4944,16 +4932,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B63" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E63" s="2">
         <v>754</v>
@@ -4974,7 +4962,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>16</v>
@@ -5001,16 +4989,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B64" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E64" s="2">
         <v>755</v>
@@ -5031,7 +5019,7 @@
         <v>17</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>16</v>
@@ -5061,16 +5049,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E65" s="2">
         <v>756</v>
@@ -5091,13 +5079,13 @@
         <v>17</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>15</v>
@@ -5124,16 +5112,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E66" s="2">
         <v>757</v>
@@ -5154,13 +5142,13 @@
         <v>17</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>15</v>
@@ -5175,7 +5163,7 @@
         <v>15</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T66" s="2">
         <v>10</v>
@@ -5190,16 +5178,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B67" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E67" s="2">
         <v>758</v>
@@ -5220,13 +5208,13 @@
         <v>17</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>15</v>
@@ -5259,16 +5247,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E68" s="2">
         <v>759</v>
@@ -5289,13 +5277,13 @@
         <v>14</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>14</v>
@@ -5313,7 +5301,7 @@
         <v>15</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T68" s="2">
         <v>10</v>
@@ -5331,16 +5319,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B69" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E69" s="2">
         <v>760</v>
@@ -5361,7 +5349,7 @@
         <v>15</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>16</v>
@@ -5382,7 +5370,7 @@
         <v>15</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T69" s="2">
         <v>10</v>
@@ -5400,16 +5388,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B70" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E70" s="2">
         <v>761</v>
@@ -5430,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>16</v>
@@ -5466,16 +5454,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B71" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E71" s="2">
         <v>762</v>
@@ -5496,13 +5484,13 @@
         <v>17</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>17</v>
@@ -5529,16 +5517,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B72" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E72" s="2">
         <v>763</v>
@@ -5559,7 +5547,7 @@
         <v>14</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>16</v>
@@ -5592,16 +5580,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B73" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E73" s="2">
         <v>764</v>
@@ -5622,7 +5610,7 @@
         <v>14</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>16</v>
@@ -5661,16 +5649,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B74" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E74" s="2">
         <v>765</v>
@@ -5691,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>16</v>
@@ -5712,7 +5700,7 @@
         <v>15</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T74" s="2">
         <v>10</v>
@@ -5730,16 +5718,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E75" s="2">
         <v>766</v>
@@ -5760,7 +5748,7 @@
         <v>17</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>16</v>
@@ -5793,16 +5781,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E76" s="2">
         <v>767</v>
@@ -5823,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>16</v>
@@ -5862,16 +5850,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B77" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E77" s="2">
         <v>768</v>
@@ -5886,19 +5874,19 @@
         <v>15</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>15</v>
@@ -5931,16 +5919,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E78" s="2">
         <v>769</v>
@@ -5955,13 +5943,13 @@
         <v>14</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>16</v>
@@ -5982,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T78" s="2">
         <v>10</v>
@@ -6000,16 +5988,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B79" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E79" s="2">
         <v>770</v>
@@ -6024,19 +6012,19 @@
         <v>14</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>14</v>
@@ -6054,7 +6042,7 @@
         <v>15</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T79" s="2">
         <v>10</v>
@@ -6069,16 +6057,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B80" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E80" s="2">
         <v>771</v>
@@ -6099,7 +6087,7 @@
         <v>17</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>16</v>
@@ -6120,7 +6108,7 @@
         <v>15</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T80" s="2">
         <v>10</v>
@@ -6138,16 +6126,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E81" s="2">
         <v>772</v>
@@ -6168,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>16</v>
@@ -6204,16 +6192,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B82" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E82" s="2">
         <v>773</v>
@@ -6234,7 +6222,7 @@
         <v>14</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>16</v>
@@ -6273,16 +6261,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B83" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E83" s="2">
         <v>774</v>
@@ -6297,13 +6285,13 @@
         <v>16</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>16</v>
@@ -6336,16 +6324,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B84" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E84" s="2">
         <v>775</v>
@@ -6360,13 +6348,13 @@
         <v>16</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>16</v>
@@ -6384,7 +6372,7 @@
         <v>15</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T84" s="2">
         <v>10</v>
@@ -6402,16 +6390,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
         <v>2019</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E85" s="2">
         <v>384</v>
@@ -6426,19 +6414,19 @@
         <v>15</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>15</v>
@@ -6474,16 +6462,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2">
         <v>2019</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E86" s="2">
         <v>385</v>
@@ -6498,19 +6486,19 @@
         <v>15</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>14</v>
@@ -6546,16 +6534,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>2019</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E87" s="2">
         <v>386</v>
@@ -6573,10 +6561,10 @@
         <v>17</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>16</v>
@@ -6609,16 +6597,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>2019</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E88" s="2">
         <v>387</v>
@@ -6639,7 +6627,7 @@
         <v>17</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>16</v>
@@ -6678,16 +6666,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2">
         <v>2019</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E89" s="2">
         <v>388</v>
@@ -6705,10 +6693,10 @@
         <v>14</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>16</v>
@@ -6741,16 +6729,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>2019</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E90" s="2">
         <v>389</v>
@@ -6768,10 +6756,10 @@
         <v>17</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>16</v>
@@ -6801,16 +6789,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>2019</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E91" s="2">
         <v>390</v>
@@ -6828,10 +6816,10 @@
         <v>14</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>16</v>
@@ -6864,16 +6852,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>2019</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E92" s="2">
         <v>391</v>
@@ -6891,16 +6879,16 @@
         <v>15</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>16</v>
@@ -6933,16 +6921,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
         <v>2019</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E93" s="2">
         <v>392</v>
@@ -6963,13 +6951,13 @@
         <v>17</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>15</v>
@@ -7005,16 +6993,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
         <v>2019</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E94" s="2">
         <v>393</v>
@@ -7032,10 +7020,10 @@
         <v>14</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>16</v>
@@ -7074,16 +7062,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B95" s="2">
         <v>2019</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E95" s="2">
         <v>394</v>
@@ -7104,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>16</v>
@@ -7113,7 +7101,7 @@
         <v>16</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q95" s="2">
         <v>318</v>
@@ -7137,16 +7125,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
         <v>2019</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E96" s="2">
         <v>395</v>
@@ -7167,13 +7155,13 @@
         <v>17</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>16</v>
@@ -7203,16 +7191,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2">
         <v>2019</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E97" s="2">
         <v>396</v>
@@ -7221,7 +7209,7 @@
         <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>15</v>
@@ -7230,10 +7218,10 @@
         <v>14</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>16</v>
@@ -7242,7 +7230,7 @@
         <v>14</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>16</v>
@@ -7266,16 +7254,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B98" s="2">
         <v>2019</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E98" s="2">
         <v>397</v>
@@ -7284,7 +7272,7 @@
         <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>15</v>
@@ -7293,10 +7281,10 @@
         <v>14</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>16</v>
@@ -7305,7 +7293,7 @@
         <v>15</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>14</v>
@@ -7317,7 +7305,7 @@
         <v>15</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T98" s="2">
         <v>10</v>
@@ -7335,16 +7323,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2">
         <v>2019</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E99" s="2">
         <v>398</v>
@@ -7362,10 +7350,10 @@
         <v>14</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>16</v>
@@ -7386,7 +7374,7 @@
         <v>15</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T99" s="2">
         <v>10</v>
@@ -7404,16 +7392,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2">
         <v>2019</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E100" s="2">
         <v>399</v>
@@ -7431,10 +7419,10 @@
         <v>17</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>16</v>
@@ -7473,16 +7461,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B101" s="2">
         <v>2019</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E101" s="2">
         <v>400</v>
@@ -7503,7 +7491,7 @@
         <v>17</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>16</v>
@@ -7536,16 +7524,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2">
         <v>2019</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E102" s="2">
         <v>701</v>
@@ -7563,10 +7551,10 @@
         <v>17</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>15</v>
@@ -7578,7 +7566,7 @@
         <v>531</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q102" s="2">
         <v>318</v>
@@ -7605,16 +7593,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
         <v>2019</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E103" s="2">
         <v>702</v>
@@ -7632,10 +7620,10 @@
         <v>17</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>16</v>
@@ -7668,16 +7656,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B104" s="2">
         <v>2019</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E104" s="2">
         <v>703</v>
@@ -7695,10 +7683,10 @@
         <v>17</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>16</v>
@@ -7707,7 +7695,7 @@
         <v>15</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>15</v>
@@ -7734,16 +7722,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B105" s="2">
         <v>2019</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E105" s="2">
         <v>704</v>
@@ -7761,10 +7749,10 @@
         <v>14</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>16</v>
@@ -7773,7 +7761,7 @@
         <v>15</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>14</v>
@@ -7800,16 +7788,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2">
         <v>2019</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E106" s="2">
         <v>705</v>
@@ -7827,10 +7815,10 @@
         <v>17</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>16</v>
@@ -7866,16 +7854,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2">
         <v>2019</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E107" s="2">
         <v>706</v>
@@ -7893,10 +7881,10 @@
         <v>17</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>16</v>
@@ -7905,7 +7893,7 @@
         <v>15</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>15</v>
@@ -7917,7 +7905,7 @@
         <v>15</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T107" s="2">
         <v>10</v>
@@ -7935,16 +7923,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2">
         <v>2019</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E108" s="2">
         <v>707</v>
@@ -7965,7 +7953,7 @@
         <v>17</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>16</v>
@@ -7974,7 +7962,7 @@
         <v>15</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>14</v>
@@ -8001,16 +7989,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B109" s="2">
         <v>2019</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E109" s="2">
         <v>708</v>
@@ -8031,7 +8019,7 @@
         <v>17</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>16</v>
@@ -8064,16 +8052,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2">
         <v>2019</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E110" s="2">
         <v>709</v>
@@ -8085,7 +8073,7 @@
         <v>15</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>14</v>
@@ -8094,13 +8082,13 @@
         <v>14</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>14</v>
@@ -8109,7 +8097,7 @@
         <v>531</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q110" s="2">
         <v>318</v>
@@ -8133,16 +8121,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2">
         <v>2019</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E111" s="2">
         <v>710</v>
@@ -8163,7 +8151,7 @@
         <v>17</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>16</v>
@@ -8172,10 +8160,10 @@
         <v>14</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q111" s="2">
         <v>318</v>
@@ -8199,16 +8187,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B112" s="2">
         <v>2019</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E112" s="2">
         <v>711</v>
@@ -8226,10 +8214,10 @@
         <v>14</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>16</v>
@@ -8238,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>17</v>
@@ -8265,16 +8253,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B113" s="2">
         <v>2019</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E113" s="2">
         <v>712</v>
@@ -8292,10 +8280,10 @@
         <v>14</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>16</v>
@@ -8304,7 +8292,7 @@
         <v>17</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>17</v>
@@ -8331,16 +8319,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B114" s="2">
         <v>2019</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E114" s="2">
         <v>713</v>
@@ -8349,7 +8337,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>14</v>
@@ -8361,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>16</v>
@@ -8373,7 +8361,7 @@
         <v>318</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q114" s="2">
         <v>318</v>
@@ -8397,16 +8385,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2">
         <v>2019</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E115" s="2">
         <v>946</v>
@@ -8421,19 +8409,19 @@
         <v>14</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>14</v>
@@ -8469,16 +8457,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B116" s="2">
         <v>2019</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E116" s="2">
         <v>947</v>
@@ -8493,19 +8481,19 @@
         <v>17</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>14</v>
@@ -8514,7 +8502,7 @@
         <v>315</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q116" s="2">
         <v>951</v>
@@ -8541,16 +8529,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B117" s="2">
         <v>2019</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E117" s="2">
         <v>948</v>
@@ -8571,13 +8559,13 @@
         <v>17</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>17</v>
@@ -8613,16 +8601,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B118" s="2">
         <v>2019</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E118" s="2">
         <v>949</v>
@@ -8643,13 +8631,13 @@
         <v>17</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>17</v>
@@ -8682,16 +8670,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B119" s="2">
         <v>2019</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E119" s="2">
         <v>801</v>
@@ -8706,13 +8694,13 @@
         <v>14</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>16</v>
@@ -8733,16 +8721,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B120" s="2">
         <v>2019</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E120" s="2">
         <v>802</v>
@@ -8763,7 +8751,7 @@
         <v>17</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>16</v>
@@ -8790,16 +8778,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B121" s="2">
         <v>2019</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E121" s="2">
         <v>803</v>
@@ -8820,7 +8808,7 @@
         <v>17</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>16</v>
@@ -8847,16 +8835,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B122" s="2">
         <v>2019</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E122" s="2">
         <v>804</v>
@@ -8871,13 +8859,13 @@
         <v>14</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>16</v>
@@ -8904,16 +8892,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B123" s="2">
         <v>2019</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E123" s="2">
         <v>805</v>
@@ -8934,7 +8922,7 @@
         <v>17</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>16</v>
@@ -8961,16 +8949,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B124" s="2">
         <v>2019</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E124" s="2">
         <v>806</v>
@@ -8991,7 +8979,7 @@
         <v>17</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>16</v>
@@ -9018,16 +9006,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B125" s="2">
         <v>2019</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E125" s="2">
         <v>807</v>
@@ -9048,7 +9036,7 @@
         <v>17</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>15</v>
@@ -9075,16 +9063,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B126" s="2">
         <v>2019</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E126" s="2">
         <v>808</v>
@@ -9105,7 +9093,7 @@
         <v>17</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>16</v>
@@ -9138,16 +9126,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B127" s="2">
         <v>2019</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E127" s="2">
         <v>809</v>
@@ -9168,13 +9156,13 @@
         <v>17</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>14</v>
@@ -9204,16 +9192,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B128" s="2">
         <v>2019</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E128" s="2">
         <v>810</v>
@@ -9234,7 +9222,7 @@
         <v>15</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>16</v>
@@ -9267,16 +9255,16 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B129" s="2">
         <v>2019</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E129" s="2">
         <v>811</v>
@@ -9297,7 +9285,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>16</v>
@@ -9330,16 +9318,16 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B130" s="2">
         <v>2019</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E130" s="2">
         <v>812</v>
@@ -9360,7 +9348,7 @@
         <v>14</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>16</v>
@@ -9390,16 +9378,16 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B131" s="2">
         <v>2019</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E131" s="2">
         <v>813</v>
@@ -9420,7 +9408,7 @@
         <v>17</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>16</v>
@@ -9453,22 +9441,22 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B132" s="2">
         <v>2019</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E132" s="2">
         <v>814</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>15</v>
@@ -9480,10 +9468,10 @@
         <v>14</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>16</v>
@@ -9492,7 +9480,7 @@
         <v>15</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>16</v>
@@ -9516,22 +9504,22 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B133" s="2">
         <v>2019</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E133" s="2">
         <v>815</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>15</v>
@@ -9546,7 +9534,7 @@
         <v>17</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>16</v>
@@ -9564,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T133" s="2">
         <v>10</v>
@@ -9576,22 +9564,22 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B134" s="2">
         <v>2019</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E134" s="2">
         <v>816</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>14</v>
@@ -9606,7 +9594,7 @@
         <v>17</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>16</v>
@@ -9633,16 +9621,16 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B135" s="2">
         <v>2019</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E135" s="2">
         <v>817</v>
@@ -9663,7 +9651,7 @@
         <v>17</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>16</v>
@@ -9696,16 +9684,16 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B136" s="2">
         <v>2019</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E136" s="2">
         <v>818</v>
@@ -9723,10 +9711,10 @@
         <v>14</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>16</v>
@@ -9762,16 +9750,16 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B137" s="2">
         <v>2019</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E137" s="2">
         <v>819</v>
@@ -9792,7 +9780,7 @@
         <v>14</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>16</v>
@@ -9825,16 +9813,16 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B138" s="2">
         <v>2019</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E138" s="2">
         <v>820</v>
@@ -9855,7 +9843,7 @@
         <v>17</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>16</v>
@@ -9891,16 +9879,16 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B139" s="2">
         <v>2019</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E139" s="2">
         <v>821</v>
@@ -9921,7 +9909,7 @@
         <v>17</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>15</v>
@@ -9954,16 +9942,16 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B140" s="2">
         <v>2019</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E140" s="2">
         <v>822</v>
@@ -9978,13 +9966,13 @@
         <v>16</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>16</v>
@@ -10020,22 +10008,22 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B141" s="2">
         <v>2019</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E141" s="2">
         <v>823</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>15</v>
@@ -10044,13 +10032,13 @@
         <v>15</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>16</v>
@@ -10077,16 +10065,16 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B142" s="2">
         <v>2019</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E142" s="2">
         <v>824</v>
@@ -10107,7 +10095,7 @@
         <v>17</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>15</v>
@@ -10134,16 +10122,16 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B143" s="2">
         <v>2019</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E143" s="2">
         <v>825</v>
@@ -10164,7 +10152,7 @@
         <v>17</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>15</v>
@@ -10194,16 +10182,16 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B144" s="2">
         <v>2019</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E144" s="2">
         <v>826</v>
@@ -10218,13 +10206,13 @@
         <v>16</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>16</v>
@@ -10248,16 +10236,16 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B145" s="2">
         <v>2019</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E145" s="2">
         <v>827</v>
@@ -10268,17 +10256,14 @@
       <c r="G145" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I145" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>16</v>
@@ -10305,16 +10290,16 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B146" s="2">
         <v>2019</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E146" s="2">
         <v>828</v>
@@ -10325,17 +10310,14 @@
       <c r="G146" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H146" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I146" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>16</v>
@@ -10362,16 +10344,16 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B147" s="2">
         <v>2019</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E147" s="2">
         <v>829</v>
@@ -10382,17 +10364,14 @@
       <c r="G147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I147" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>16</v>
@@ -10422,16 +10401,16 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B148" s="2">
         <v>2019</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E148" s="2">
         <v>830</v>
@@ -10452,7 +10431,7 @@
         <v>14</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>16</v>
@@ -10485,16 +10464,16 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B149" s="2">
         <v>2019</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E149" s="2">
         <v>831</v>
@@ -10505,9 +10484,6 @@
       <c r="G149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I149" s="2" t="s">
         <v>17</v>
       </c>
@@ -10515,7 +10491,7 @@
         <v>17</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>16</v>
@@ -10548,16 +10524,16 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B150" s="2">
         <v>2019</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E150" s="2">
         <v>832</v>
@@ -10568,17 +10544,14 @@
       <c r="G150" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I150" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>16</v>
@@ -10605,16 +10578,16 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B151" s="2">
         <v>2019</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E151" s="2">
         <v>833</v>
@@ -10625,17 +10598,14 @@
       <c r="G151" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I151" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>16</v>
@@ -10662,16 +10632,16 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B152" s="2">
         <v>2019</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E152" s="2">
         <v>834</v>
@@ -10682,17 +10652,14 @@
       <c r="G152" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H152" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I152" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>15</v>
@@ -10719,16 +10686,16 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B153" s="2">
         <v>2019</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E153" s="2">
         <v>835</v>
@@ -10739,9 +10706,6 @@
       <c r="G153" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I153" s="2" t="s">
         <v>17</v>
       </c>
@@ -10749,7 +10713,7 @@
         <v>17</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>16</v>
@@ -10785,13 +10749,13 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B154" s="2">
         <v>2019</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>20</v>
@@ -10809,13 +10773,13 @@
         <v>16</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>16</v>
@@ -10842,13 +10806,13 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B155" s="2">
         <v>2019</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>20</v>
@@ -10872,7 +10836,7 @@
         <v>17</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>16</v>
@@ -10881,7 +10845,7 @@
         <v>14</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>16</v>
@@ -10899,13 +10863,13 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B156" s="2">
         <v>2019</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>20</v>
@@ -10923,13 +10887,13 @@
         <v>14</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>16</v>
@@ -10956,13 +10920,13 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B157" s="2">
         <v>2019</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>20</v>
@@ -10986,7 +10950,7 @@
         <v>14</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>16</v>
@@ -10995,7 +10959,7 @@
         <v>14</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>16</v>
@@ -11004,7 +10968,7 @@
         <v>10</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA157" s="2">
         <f>SUM(U157:Z157) * 10</f>
@@ -11013,13 +10977,13 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B158" s="2">
         <v>2019</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>20</v>
@@ -11043,7 +11007,7 @@
         <v>15</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>16</v>
@@ -11067,13 +11031,13 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B159" s="2">
         <v>2019</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>20</v>
@@ -11097,7 +11061,7 @@
         <v>14</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>16</v>
@@ -11127,13 +11091,13 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B160" s="2">
         <v>2019</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>20</v>
@@ -11154,10 +11118,10 @@
         <v>14</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>16</v>
@@ -11181,13 +11145,13 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B161" s="2">
         <v>2019</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>20</v>
@@ -11208,10 +11172,10 @@
         <v>14</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>16</v>
@@ -11220,7 +11184,7 @@
         <v>15</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>16</v>
@@ -11238,13 +11202,13 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B162" s="2">
         <v>2019</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>20</v>
@@ -11265,10 +11229,10 @@
         <v>17</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>16</v>
@@ -11277,7 +11241,7 @@
         <v>15</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P162" s="2" t="s">
         <v>16</v>
@@ -11295,13 +11259,13 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B163" s="2">
         <v>2019</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>20</v>
@@ -11322,10 +11286,10 @@
         <v>14</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>16</v>
@@ -11343,7 +11307,7 @@
         <v>14</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T163" s="2">
         <v>10</v>
@@ -11355,7 +11319,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B164" s="2">
         <v>2019</v>
@@ -11385,7 +11349,7 @@
         <v>17</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>16</v>
@@ -11418,7 +11382,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B165" s="2">
         <v>2019</v>
@@ -11448,7 +11412,7 @@
         <v>17</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>16</v>
@@ -11466,7 +11430,7 @@
         <v>14</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T165" s="2">
         <v>10</v>
@@ -11478,7 +11442,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B166" s="2">
         <v>2019</v>
@@ -11508,7 +11472,7 @@
         <v>14</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>16</v>
@@ -11535,7 +11499,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B167" s="2">
         <v>2019</v>
@@ -11565,7 +11529,7 @@
         <v>17</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>16</v>
@@ -11601,7 +11565,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B168" s="2">
         <v>2019</v>
@@ -11631,7 +11595,7 @@
         <v>17</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>16</v>
@@ -11667,7 +11631,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B169" s="2">
         <v>2019</v>
@@ -11697,7 +11661,7 @@
         <v>17</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>16</v>
@@ -11733,13 +11697,13 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B170" s="2">
         <v>2019</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>20</v>
@@ -11763,7 +11727,7 @@
         <v>17</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>16</v>
@@ -11781,7 +11745,7 @@
         <v>14</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T170" s="2">
         <v>10</v>
@@ -11793,13 +11757,13 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B171" s="2">
         <v>2019</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>20</v>
@@ -11823,7 +11787,7 @@
         <v>17</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>16</v>
@@ -11832,7 +11796,7 @@
         <v>14</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P171" s="2" t="s">
         <v>16</v>
@@ -11841,7 +11805,7 @@
         <v>14</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T171" s="2">
         <v>10</v>
@@ -11853,13 +11817,13 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B172" s="2">
         <v>2019</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>20</v>
@@ -11883,7 +11847,7 @@
         <v>17</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>16</v>
@@ -11901,7 +11865,7 @@
         <v>17</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T172" s="2">
         <v>10</v>
@@ -11913,7 +11877,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B173" s="2">
         <v>2019</v>
@@ -11943,13 +11907,13 @@
         <v>17</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N173" s="2" t="s">
         <v>15</v>
@@ -11982,13 +11946,13 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B174" s="2">
         <v>2019</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>20</v>
@@ -12012,7 +11976,7 @@
         <v>17</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L174" s="2" t="s">
         <v>16</v>
@@ -12045,13 +12009,13 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B175" s="2">
         <v>2019</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>20</v>
@@ -12075,7 +12039,7 @@
         <v>17</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>16</v>
@@ -12108,13 +12072,13 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B176" s="2">
         <v>2019</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>20</v>
@@ -12132,13 +12096,13 @@
         <v>14</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>16</v>
@@ -12174,13 +12138,13 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B177" s="2">
         <v>2019</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>20</v>
@@ -12201,10 +12165,10 @@
         <v>14</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>16</v>
@@ -12222,7 +12186,7 @@
         <v>17</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T177" s="2">
         <v>10</v>
@@ -12234,13 +12198,13 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B178" s="2">
         <v>2019</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>20</v>
@@ -12264,7 +12228,7 @@
         <v>14</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>16</v>
@@ -12297,13 +12261,13 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B179" s="2">
         <v>2019</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>20</v>
@@ -12324,10 +12288,10 @@
         <v>14</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>16</v>
@@ -12357,13 +12321,13 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B180" s="2">
         <v>2019</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>20</v>
@@ -12375,7 +12339,7 @@
         <v>17</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>17</v>
@@ -12384,10 +12348,10 @@
         <v>14</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>16</v>
@@ -12414,13 +12378,13 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B181" s="2">
         <v>2019</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>20</v>
@@ -12444,7 +12408,7 @@
         <v>17</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>16</v>
@@ -12471,13 +12435,13 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B182" s="2">
         <v>2019</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>20</v>
@@ -12501,7 +12465,7 @@
         <v>14</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>16</v>
@@ -12540,13 +12504,13 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B183" s="2">
         <v>2019</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>20</v>
@@ -12567,10 +12531,10 @@
         <v>17</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>16</v>
@@ -12588,7 +12552,7 @@
         <v>14</v>
       </c>
       <c r="S183" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="T183" s="2">
         <v>10</v>
@@ -12600,13 +12564,13 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B184" s="2">
         <v>2019</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>20</v>
@@ -12630,7 +12594,7 @@
         <v>14</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>16</v>
@@ -12663,13 +12627,13 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B185" s="2">
         <v>2019</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>20</v>
@@ -12684,7 +12648,7 @@
         <v>14</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>14</v>
@@ -12693,7 +12657,7 @@
         <v>17</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>16</v>
@@ -12720,13 +12684,13 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B186" s="2">
         <v>2019</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>20</v>
@@ -12738,7 +12702,7 @@
         <v>17</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>14</v>
@@ -12747,10 +12711,10 @@
         <v>17</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>16</v>
@@ -12777,13 +12741,13 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B187" s="2">
         <v>2019</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>20</v>
@@ -12804,10 +12768,10 @@
         <v>17</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>16</v>
@@ -12815,8 +12779,8 @@
       <c r="N187" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O187" s="6" t="s">
-        <v>41</v>
+      <c r="O187" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>15</v>
@@ -12828,7 +12792,7 @@
         <v>15</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T187" s="2">
         <v>10</v>
@@ -12843,13 +12807,13 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B188" s="2">
         <v>2019</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>20</v>
@@ -12870,10 +12834,10 @@
         <v>14</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>16</v>
@@ -12900,13 +12864,13 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B189" s="2">
         <v>2019</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>20</v>
@@ -12930,7 +12894,7 @@
         <v>17</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>16</v>
@@ -12963,13 +12927,13 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B190" s="2">
         <v>2019</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>20</v>
@@ -12990,10 +12954,10 @@
         <v>14</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>16</v>
@@ -13023,13 +12987,13 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B191" s="2">
         <v>2019</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>20</v>
@@ -13038,7 +13002,7 @@
         <v>873</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>15</v>
@@ -13050,10 +13014,10 @@
         <v>17</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>16</v>
@@ -13083,13 +13047,13 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B192" s="2">
         <v>2019</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>20</v>
@@ -13107,13 +13071,13 @@
         <v>15</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>16</v>
@@ -13143,13 +13107,13 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B193" s="2">
         <v>2019</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>20</v>
@@ -13173,7 +13137,7 @@
         <v>17</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>16</v>
@@ -13206,13 +13170,13 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B194" s="2">
         <v>2019</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>20</v>
@@ -13233,10 +13197,10 @@
         <v>14</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>16</v>
@@ -13263,13 +13227,13 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B195" s="2">
         <v>2019</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>20</v>
@@ -13293,7 +13257,7 @@
         <v>17</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>16</v>
@@ -13329,13 +13293,13 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B196" s="2">
         <v>2019</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>20</v>
@@ -13353,13 +13317,13 @@
         <v>14</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>16</v>
@@ -13392,13 +13356,13 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B197" s="2">
         <v>2019</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>20</v>
@@ -13422,7 +13386,7 @@
         <v>17</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>16</v>
@@ -13455,13 +13419,13 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B198" s="2">
         <v>2019</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>20</v>
@@ -13473,25 +13437,25 @@
         <v>15</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>15</v>
@@ -13506,7 +13470,7 @@
         <v>15</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T198" s="2">
         <v>10</v>
@@ -13521,13 +13485,13 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B199" s="2">
         <v>2019</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>20</v>
@@ -13545,19 +13509,19 @@
         <v>16</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O199" s="2">
         <v>740</v>
@@ -13569,7 +13533,7 @@
         <v>15</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T199" s="2">
         <v>10</v>
@@ -13584,13 +13548,13 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B200" s="2">
         <v>2019</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>20</v>
@@ -13602,7 +13566,7 @@
         <v>16</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>16</v>
@@ -13614,16 +13578,16 @@
         <v>14</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O200" s="2">
         <v>740</v>
@@ -13638,7 +13602,7 @@
         <v>15</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T200" s="2">
         <v>10</v>
@@ -13656,13 +13620,13 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B201" s="2">
         <v>2019</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>20</v>
@@ -13680,19 +13644,19 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L201" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N201" s="2" t="s">
         <v>15</v>
@@ -13719,13 +13683,13 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B202" s="2">
         <v>2019</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>20</v>
@@ -13749,7 +13713,7 @@
         <v>17</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>16</v>
@@ -13770,7 +13734,7 @@
         <v>15</v>
       </c>
       <c r="S202" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T202" s="2">
         <v>10</v>
@@ -13786,13 +13750,13 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B203" s="2">
         <v>2019</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>20</v>
@@ -13804,7 +13768,7 @@
         <v>14</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>16</v>
@@ -13816,7 +13780,7 @@
         <v>17</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>16</v>
@@ -13849,13 +13813,13 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B204" s="2">
         <v>2019</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>20</v>
@@ -13879,7 +13843,7 @@
         <v>17</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>16</v>
@@ -13900,7 +13864,7 @@
         <v>15</v>
       </c>
       <c r="S204" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T204" s="2">
         <v>10</v>
@@ -13921,13 +13885,13 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B205" s="2">
         <v>2019</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>20</v>
@@ -13951,13 +13915,13 @@
         <v>17</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N205" s="2" t="s">
         <v>14</v>
@@ -13972,7 +13936,7 @@
         <v>15</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T205" s="2">
         <v>10</v>
@@ -13987,13 +13951,13 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B206" s="2">
         <v>2019</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>20</v>
@@ -14011,13 +13975,13 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>16</v>
@@ -14053,13 +14017,13 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B207" s="2">
         <v>2019</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>20</v>
@@ -14083,7 +14047,7 @@
         <v>14</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>16</v>
@@ -14119,13 +14083,13 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B208" s="2">
         <v>2019</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>20</v>
@@ -14143,13 +14107,13 @@
         <v>15</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>16</v>
@@ -14185,13 +14149,13 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B209" s="2">
         <v>2019</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>20</v>
@@ -14209,19 +14173,19 @@
         <v>16</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N209" s="2" t="s">
         <v>15</v>
@@ -14248,13 +14212,13 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B210" s="2">
         <v>2019</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>20</v>
@@ -14278,7 +14242,7 @@
         <v>14</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>16</v>
@@ -14308,13 +14272,13 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B211" s="2">
         <v>2019</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>20</v>
@@ -14332,13 +14296,13 @@
         <v>16</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>16</v>
@@ -14374,13 +14338,13 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B212" s="2">
         <v>2019</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -14404,7 +14368,7 @@
         <v>17</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L212" s="2" t="s">
         <v>16</v>
@@ -14437,16 +14401,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B213" s="2">
         <v>2019</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E213" s="2">
         <v>880</v>
@@ -14467,7 +14431,7 @@
         <v>17</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L213" s="2" t="s">
         <v>16</v>
@@ -14497,16 +14461,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B214" s="2">
         <v>2019</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E214" s="2">
         <v>881</v>
@@ -14527,7 +14491,7 @@
         <v>14</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L214" s="2" t="s">
         <v>16</v>
@@ -14557,16 +14521,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B215" s="2">
         <v>2019</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E215" s="2">
         <v>882</v>
@@ -14581,13 +14545,13 @@
         <v>16</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L215" s="2" t="s">
         <v>16</v>
@@ -14617,16 +14581,16 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B216" s="2">
         <v>2019</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E216" s="2">
         <v>883</v>
@@ -14647,13 +14611,13 @@
         <v>17</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L216" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N216" s="2" t="s">
         <v>14</v>
@@ -14668,7 +14632,7 @@
         <v>15</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T216" s="2">
         <v>10</v>
@@ -14683,16 +14647,16 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B217" s="2">
         <v>2019</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E217" s="2">
         <v>884</v>
@@ -14713,7 +14677,7 @@
         <v>17</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L217" s="2" t="s">
         <v>16</v>
@@ -14746,16 +14710,16 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B218" s="2">
         <v>2019</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E218" s="2">
         <v>885</v>
@@ -14776,13 +14740,13 @@
         <v>17</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L218" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O218" s="2">
         <v>740</v>
@@ -14809,16 +14773,16 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B219" s="2">
         <v>2019</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E219" s="2">
         <v>886</v>
@@ -14839,13 +14803,13 @@
         <v>17</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L219" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O219" s="2">
         <v>746</v>
@@ -14860,7 +14824,7 @@
         <v>15</v>
       </c>
       <c r="S219" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T219" s="2">
         <v>10</v>
@@ -14875,16 +14839,16 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B220" s="2">
         <v>2019</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E220" s="2">
         <v>887</v>
@@ -14905,7 +14869,7 @@
         <v>14</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L220" s="2" t="s">
         <v>16</v>
@@ -14938,16 +14902,16 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B221" s="2">
         <v>2019</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E221" s="2">
         <v>888</v>
@@ -14962,13 +14926,13 @@
         <v>16</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L221" s="2" t="s">
         <v>16</v>
@@ -14989,7 +14953,7 @@
         <v>15</v>
       </c>
       <c r="S221" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T221" s="2">
         <v>10</v>
@@ -15007,16 +14971,16 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B222" s="2">
         <v>2019</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E222" s="2">
         <v>889</v>
@@ -15031,19 +14995,19 @@
         <v>16</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L222" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="N222" s="2" t="s">
         <v>14</v>
@@ -15073,16 +15037,16 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B223" s="2">
         <v>2019</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E223" s="2">
         <v>890</v>
@@ -15097,19 +15061,19 @@
         <v>16</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>15</v>
@@ -15136,16 +15100,16 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B224" s="2">
         <v>2019</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E224" s="2">
         <v>891</v>
@@ -15166,13 +15130,13 @@
         <v>17</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L224" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="N224" s="2" t="s">
         <v>14</v>
@@ -15205,16 +15169,16 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B225" s="2">
         <v>2019</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E225" s="2">
         <v>892</v>
@@ -15229,13 +15193,13 @@
         <v>16</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>16</v>
@@ -15265,13 +15229,13 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B226" s="2">
         <v>2019</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>20</v>
@@ -15295,16 +15259,16 @@
         <v>17</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L226" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O226" s="2">
         <v>743</v>
@@ -15319,7 +15283,7 @@
         <v>15</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T226" s="2">
         <v>10</v>
@@ -15337,13 +15301,13 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B227" s="2">
         <v>2019</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>20</v>
@@ -15367,7 +15331,7 @@
         <v>17</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>16</v>
@@ -15379,7 +15343,7 @@
         <v>761</v>
       </c>
       <c r="P227" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q227" s="2">
         <v>316</v>
@@ -15388,7 +15352,7 @@
         <v>15</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T227" s="2">
         <v>10</v>
@@ -15406,13 +15370,13 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B228" s="2">
         <v>2019</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>20</v>
@@ -15436,7 +15400,7 @@
         <v>17</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L228" s="2" t="s">
         <v>16</v>
@@ -15457,7 +15421,7 @@
         <v>14</v>
       </c>
       <c r="S228" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T228" s="2">
         <v>10</v>
@@ -15475,13 +15439,13 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B229" s="2">
         <v>2019</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>20</v>
@@ -15505,7 +15469,7 @@
         <v>14</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>16</v>
@@ -15547,13 +15511,13 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B230" s="2">
         <v>2019</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>20</v>
@@ -15574,16 +15538,16 @@
         <v>15</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O230" s="2">
         <v>761</v>
@@ -15595,7 +15559,7 @@
         <v>15</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T230" s="2">
         <v>10</v>
@@ -15610,13 +15574,13 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B231" s="2">
         <v>2019</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>20</v>
@@ -15637,10 +15601,10 @@
         <v>14</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>16</v>
@@ -15676,13 +15640,13 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B232" s="2">
         <v>2019</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>20</v>
@@ -15706,13 +15670,13 @@
         <v>17</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L232" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O232" s="2">
         <v>761</v>
@@ -15742,13 +15706,13 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B233" s="2">
         <v>2019</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>20</v>
@@ -15772,13 +15736,13 @@
         <v>17</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L233" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O233" s="2">
         <v>761</v>
@@ -15808,13 +15772,13 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B234" s="2">
         <v>2019</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>20</v>
@@ -15838,7 +15802,7 @@
         <v>17</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>16</v>
@@ -15850,7 +15814,7 @@
         <v>761</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q234" s="2">
         <v>318</v>
@@ -15874,13 +15838,13 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B235" s="2">
         <v>2019</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>20</v>
@@ -15898,13 +15862,13 @@
         <v>15</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L235" s="2" t="s">
         <v>16</v>
@@ -15925,7 +15889,7 @@
         <v>15</v>
       </c>
       <c r="S235" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T235" s="2">
         <v>10</v>
@@ -15943,13 +15907,13 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B236" s="2">
         <v>2019</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>20</v>
@@ -15973,7 +15937,7 @@
         <v>17</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L236" s="2" t="s">
         <v>16</v>
@@ -15985,7 +15949,7 @@
         <v>761</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q236" s="2">
         <v>316</v>
@@ -16009,13 +15973,13 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B237" s="2">
         <v>2019</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>20</v>
@@ -16027,7 +15991,7 @@
         <v>15</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>17</v>
@@ -16036,10 +16000,10 @@
         <v>15</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L237" s="2" t="s">
         <v>16</v>
@@ -16051,7 +16015,7 @@
         <v>541</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q237" s="2">
         <v>318</v>
@@ -16075,13 +16039,13 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B238" s="2">
         <v>2019</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>20</v>
@@ -16102,10 +16066,10 @@
         <v>15</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>16</v>
@@ -16141,13 +16105,13 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B239" s="2">
         <v>2019</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>20</v>
@@ -16168,10 +16132,10 @@
         <v>14</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L239" s="2" t="s">
         <v>16</v>
@@ -16207,16 +16171,16 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B240" s="2">
         <v>2019</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E240" s="2">
         <v>966</v>
@@ -16237,13 +16201,13 @@
         <v>17</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O240" s="2">
         <v>761</v>
@@ -16258,7 +16222,7 @@
         <v>15</v>
       </c>
       <c r="S240" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T240" s="2">
         <v>10</v>
@@ -16276,16 +16240,16 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B241" s="2">
         <v>2019</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E241" s="2">
         <v>967</v>
@@ -16303,10 +16267,10 @@
         <v>14</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L241" s="2" t="s">
         <v>16</v>
@@ -16342,16 +16306,16 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B242" s="2">
         <v>2019</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E242" s="2">
         <v>968</v>
@@ -16369,10 +16333,10 @@
         <v>14</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L242" s="2" t="s">
         <v>16</v>
@@ -16408,16 +16372,16 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B243" s="2">
         <v>2019</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E243" s="2">
         <v>969</v>
@@ -16435,10 +16399,10 @@
         <v>14</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>16</v>
@@ -16474,16 +16438,16 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B244" s="2">
         <v>2019</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E244" s="2">
         <v>970</v>
@@ -16498,13 +16462,13 @@
         <v>14</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>16</v>
@@ -16540,16 +16504,16 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B245" s="2">
         <v>2019</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E245" s="2">
         <v>971</v>
@@ -16570,16 +16534,16 @@
         <v>17</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L245" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P245" s="2" t="s">
         <v>14</v>
@@ -16606,16 +16570,16 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B246" s="2">
         <v>2019</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E246" s="2">
         <v>972</v>
@@ -16633,10 +16597,10 @@
         <v>17</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L246" s="2" t="s">
         <v>16</v>
@@ -16657,7 +16621,7 @@
         <v>15</v>
       </c>
       <c r="S246" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T246" s="2">
         <v>10</v>
@@ -16672,16 +16636,16 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B247" s="2">
         <v>2019</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E247" s="2">
         <v>973</v>
@@ -16696,13 +16660,13 @@
         <v>15</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L247" s="2" t="s">
         <v>16</v>
@@ -16723,7 +16687,7 @@
         <v>17</v>
       </c>
       <c r="S247" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T247" s="2">
         <v>10</v>
@@ -16741,16 +16705,16 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B248" s="2">
         <v>2019</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E248" s="2">
         <v>974</v>
@@ -16765,13 +16729,13 @@
         <v>15</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>16</v>
@@ -16792,7 +16756,7 @@
         <v>15</v>
       </c>
       <c r="S248" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T248" s="2">
         <v>10</v>
@@ -16810,16 +16774,16 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B249" s="2">
         <v>2019</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E249" s="2">
         <v>975</v>
@@ -16840,7 +16804,7 @@
         <v>14</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L249" s="2" t="s">
         <v>16</v>
@@ -16852,7 +16816,7 @@
         <v>743</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q249" s="2">
         <v>316</v>
@@ -16877,7 +16841,6 @@
   </sheetData>
   <sortState ref="A2:AB249">
     <sortCondition ref="A2:A249"/>
-    <sortCondition ref="E2:E249"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/plot-data-2019.xlsx
+++ b/plot-data-2019.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="113">
   <si>
     <t>location</t>
   </si>
@@ -344,6 +344,36 @@
   <si>
     <t>% stocked x385</t>
   </si>
+  <si>
+    <t>inv_cov</t>
+  </si>
+  <si>
+    <t>inv_spp</t>
+  </si>
+  <si>
+    <t>mid_cov</t>
+  </si>
+  <si>
+    <t>mid_spp</t>
+  </si>
+  <si>
+    <t>upper_cov</t>
+  </si>
+  <si>
+    <t>vine_cov</t>
+  </si>
+  <si>
+    <t>vine_spp</t>
+  </si>
+  <si>
+    <t>low_cov</t>
+  </si>
+  <si>
+    <t>low_spp</t>
+  </si>
+  <si>
+    <t>upper_spp</t>
+  </si>
 </sst>
 </file>
 
@@ -467,11 +497,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -790,15 +820,16 @@
   <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="750" topLeftCell="A190" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="I200" sqref="I200"/>
+      <pane ySplit="750" topLeftCell="A178" activePane="bottomLeft"/>
+      <selection activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="W188" sqref="W188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="13" style="2" customWidth="1"/>
     <col min="5" max="9" width="6.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="2" customWidth="1"/>
@@ -837,34 +868,34 @@
         <v>5</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>6</v>
@@ -953,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="AA2" s="2">
-        <f>SUM(U2:Z2) * 10</f>
+        <f t="shared" ref="AA2:AA65" si="0">SUM(U2:Z2) * 10</f>
         <v>40</v>
       </c>
       <c r="AB2" s="2">
@@ -1022,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="2">
-        <f>SUM(U3:Z3) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB3" s="2">
@@ -1088,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="AA4" s="2">
-        <f>SUM(U4:Z4) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB4" s="2">
@@ -1154,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="AA5" s="2">
-        <f>SUM(U5:Z5) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB5" s="2">
@@ -1223,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2">
-        <f>SUM(U6:Z6) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB6" s="2">
@@ -1298,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="2">
-        <f>SUM(U7:Z7) * 10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AB7" s="2">
@@ -1367,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="AA8" s="2">
-        <f>SUM(U8:Z8) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB8" s="2">
@@ -1433,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="AA9" s="2">
-        <f>SUM(U9:Z9) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB9" s="2">
@@ -1499,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="AA10" s="2">
-        <f>SUM(U10:Z10) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB10" s="2">
@@ -1568,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2">
-        <f>SUM(U11:Z11) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB11" s="2">
@@ -1637,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <f>SUM(U12:Z12) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB12" s="2">
@@ -1706,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2">
-        <f>SUM(U13:Z13) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB13" s="2">
@@ -1778,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2">
-        <f>SUM(U14:Z14) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB14" s="2">
@@ -1841,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <f>SUM(U15:Z15) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB15" s="2">
@@ -1907,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="AA16" s="2">
-        <f>SUM(U16:Z16) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB16" s="2">
@@ -1973,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="2">
-        <f>SUM(U17:Z17) * 10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AB17" s="2">
@@ -2039,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2">
-        <f>SUM(U18:Z18) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB18" s="2">
@@ -2105,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="AA19" s="2">
-        <f>SUM(U19:Z19) * 10</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="AB19" s="2">
@@ -2171,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="AA20" s="2">
-        <f>SUM(U20:Z20) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB20" s="2">
@@ -2240,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="AA21" s="2">
-        <f>SUM(U21:Z21) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB21" s="2">
@@ -2306,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="AA22" s="2">
-        <f>SUM(U22:Z22) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB22" s="2">
@@ -2372,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2">
-        <f>SUM(U23:Z23) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB23" s="2">
@@ -2432,7 +2463,7 @@
         <v>10</v>
       </c>
       <c r="AA24" s="2">
-        <f>SUM(U24:Z24) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="AA25" s="2">
-        <f>SUM(U25:Z25) * 10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AB25" s="2">
@@ -2564,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="AA26" s="2">
-        <f>SUM(U26:Z26) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB26" s="2">
@@ -2633,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="AA27" s="2">
-        <f>SUM(U27:Z27) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB27" s="2">
@@ -2693,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="2">
-        <f>SUM(U28:Z28) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB28" s="2">
@@ -2762,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="AA29" s="2">
-        <f>SUM(U29:Z29) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB29" s="2">
@@ -2831,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="AA30" s="2">
-        <f>SUM(U30:Z30) * 10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AB30" s="2">
@@ -2897,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="AA31" s="2">
-        <f>SUM(U31:Z31) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB31" s="2">
@@ -2963,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="AA32" s="2">
-        <f>SUM(U32:Z32) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3026,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <f>SUM(U33:Z33) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3089,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="AA34" s="2">
-        <f>SUM(U34:Z34) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3152,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2">
-        <f>SUM(U35:Z35) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3218,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="AA36" s="2">
-        <f>SUM(U36:Z36) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB36" s="2">
@@ -3287,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="AA37" s="2">
-        <f>SUM(U37:Z37) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB37" s="2">
@@ -3356,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="2">
-        <f>SUM(U38:Z38) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB38" s="2">
@@ -3416,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="AA39" s="2">
-        <f>SUM(U39:Z39) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB39" s="2">
@@ -3482,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="AA40" s="2">
-        <f>SUM(U40:Z40) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB40" s="2">
@@ -3551,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="AA41" s="2">
-        <f>SUM(U41:Z41) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB41" s="2">
@@ -3620,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="AA42" s="2">
-        <f>SUM(U42:Z42) * 10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="AB42" s="2">
@@ -3686,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="AA43" s="2">
-        <f>SUM(U43:Z43) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB43" s="2">
@@ -3755,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="AA44" s="2">
-        <f>SUM(U44:Z44) * 10</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AB44" s="2">
@@ -3824,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="AA45" s="2">
-        <f>SUM(U45:Z45) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB45" s="2">
@@ -3887,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="AA46" s="2">
-        <f>SUM(U46:Z46) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB46" s="2">
@@ -3950,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2">
-        <f>SUM(U47:Z47) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB47" s="2">
@@ -4019,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="AA48" s="2">
-        <f>SUM(U48:Z48) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB48" s="2">
@@ -4085,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="AA49" s="2">
-        <f>SUM(U49:Z49) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AB49" s="2">
@@ -4157,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="AA50" s="2">
-        <f>SUM(U50:Z50) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB50" s="2">
@@ -4226,7 +4257,7 @@
         <v>5</v>
       </c>
       <c r="AA51" s="2">
-        <f>SUM(U51:Z51) * 10</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="AB51" s="2">
@@ -4295,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AA52" s="2">
-        <f>SUM(U52:Z52) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB52" s="2">
@@ -4355,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="AA53" s="2">
-        <f>SUM(U53:Z53) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4415,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="AA54" s="2">
-        <f>SUM(U54:Z54) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4475,7 +4506,7 @@
         <v>10</v>
       </c>
       <c r="AA55" s="2">
-        <f>SUM(U55:Z55) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4538,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="AA56" s="2">
-        <f>SUM(U56:Z56) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4598,7 +4629,7 @@
         <v>10</v>
       </c>
       <c r="AA57" s="2">
-        <f>SUM(U57:Z57) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4658,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="AA58" s="2">
-        <f>SUM(U58:Z58) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4715,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="AA59" s="2">
-        <f>SUM(U59:Z59) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="AA60" s="2">
-        <f>SUM(U60:Z60) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -4841,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AA61" s="2">
-        <f>SUM(U61:Z61) * 10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4910,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="AA62" s="2">
-        <f>SUM(U62:Z62) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB62" s="4">
@@ -4970,7 +5001,7 @@
         <v>10</v>
       </c>
       <c r="AA63" s="2">
-        <f>SUM(U63:Z63) * 10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB63" s="4">
@@ -5042,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="AA64" s="2">
-        <f>SUM(U64:Z64) * 10</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AB64" s="2">
@@ -5111,7 +5142,7 @@
         <v>2</v>
       </c>
       <c r="AA65" s="2">
-        <f>SUM(U65:Z65) * 10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AB65" s="2">
@@ -5177,7 +5208,7 @@
         <v>10</v>
       </c>
       <c r="AA66" s="2">
-        <f>SUM(U66:Z66) * 10</f>
+        <f t="shared" ref="AA66:AA129" si="1">SUM(U66:Z66) * 10</f>
         <v>0</v>
       </c>
       <c r="AB66" s="2">
@@ -5243,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="AA67" s="2">
-        <f>SUM(U67:Z67) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB67" s="2">
@@ -5318,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="AA68" s="2">
-        <f>SUM(U68:Z68) * 10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AB68" s="2">
@@ -5384,7 +5415,7 @@
         <v>2</v>
       </c>
       <c r="AA69" s="2">
-        <f>SUM(U69:Z69) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB69" s="2">
@@ -5450,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="AA70" s="2">
-        <f>SUM(U70:Z70) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB70" s="2">
@@ -5519,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="AA71" s="2">
-        <f>SUM(U71:Z71) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB71" s="2">
@@ -5585,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="AA72" s="2">
-        <f>SUM(U72:Z72) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB72" s="2">
@@ -5651,7 +5682,7 @@
         <v>4</v>
       </c>
       <c r="AA73" s="2">
-        <f>SUM(U73:Z73) * 10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AB73" s="2">
@@ -5714,7 +5745,7 @@
         <v>2</v>
       </c>
       <c r="AA74" s="2">
-        <f>SUM(U74:Z74) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -5774,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="AA75" s="2">
-        <f>SUM(U75:Z75) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5843,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="AA76" s="2">
-        <f>SUM(U76:Z76) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5909,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="AA77" s="2">
-        <f>SUM(U77:Z77) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5978,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="AA78" s="2">
-        <f>SUM(U78:Z78) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB78" s="2">
@@ -6038,7 +6069,7 @@
         <v>10</v>
       </c>
       <c r="AA79" s="2">
-        <f>SUM(U79:Z79) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB79" s="2">
@@ -6110,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="AA80" s="2">
-        <f>SUM(U80:Z80) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AB80" s="2">
@@ -6176,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="AA81" s="2">
-        <f>SUM(U81:Z81) * 10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AB81" s="2">
@@ -6245,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="2">
-        <f>SUM(U82:Z82) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB82" s="2">
@@ -6314,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="AA83" s="2">
-        <f>SUM(U83:Z83) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB83" s="2">
@@ -6377,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="AA84" s="2">
-        <f>SUM(U84:Z84) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB84" s="2">
@@ -6440,7 +6471,7 @@
         <v>5</v>
       </c>
       <c r="AA85" s="2">
-        <f>SUM(U85:Z85) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB85" s="2">
@@ -6509,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="AA86" s="2">
-        <f>SUM(U86:Z86) * 10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AB86" s="2">
@@ -6572,7 +6603,7 @@
         <v>5</v>
       </c>
       <c r="AA87" s="2">
-        <f>SUM(U87:Z87) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB87" s="2">
@@ -6638,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="AA88" s="2">
-        <f>SUM(U88:Z88) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB88" s="2">
@@ -6701,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="AA89" s="2">
-        <f>SUM(U89:Z89) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AB89" s="2">
@@ -6773,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="AA90" s="2">
-        <f>SUM(U90:Z90) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB90" s="2">
@@ -6836,7 +6867,7 @@
         <v>10</v>
       </c>
       <c r="AA91" s="2">
-        <f>SUM(U91:Z91) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6893,7 +6924,7 @@
         <v>10</v>
       </c>
       <c r="AA92" s="2">
-        <f>SUM(U92:Z92) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6950,7 +6981,7 @@
         <v>10</v>
       </c>
       <c r="AA93" s="2">
-        <f>SUM(U93:Z93) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7007,7 +7038,7 @@
         <v>10</v>
       </c>
       <c r="AA94" s="2">
-        <f>SUM(U94:Z94) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7067,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="AA95" s="2">
-        <f>SUM(U95:Z95) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB95" s="4">
@@ -7133,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="AA96" s="2">
-        <f>SUM(U96:Z96) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB96" s="2">
@@ -7202,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="AA97" s="2">
-        <f>SUM(U97:Z97) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB97" s="2">
@@ -7271,7 +7302,7 @@
         <v>2</v>
       </c>
       <c r="AA98" s="2">
-        <f>SUM(U98:Z98) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB98" s="2">
@@ -7334,7 +7365,7 @@
         <v>10</v>
       </c>
       <c r="AA99" s="2">
-        <f>SUM(U99:Z99) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB99" s="2">
@@ -7403,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="AA100" s="2">
-        <f>SUM(U100:Z100) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AB100" s="2">
@@ -7472,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="AA101" s="2">
-        <f>SUM(U101:Z101) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB101" s="2">
@@ -7532,7 +7563,7 @@
         <v>10</v>
       </c>
       <c r="AA102" s="2">
-        <f>SUM(U102:Z102) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB102" s="2">
@@ -7592,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="AA103" s="2">
-        <f>SUM(U103:Z103) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7655,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="AA104" s="2">
-        <f>SUM(U104:Z104) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -7721,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="AA105" s="2">
-        <f>SUM(U105:Z105) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -7790,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="AA106" s="2">
-        <f>SUM(U106:Z106) * 10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -7853,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="AA107" s="2">
-        <f>SUM(U107:Z107) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -7916,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="AA108" s="2">
-        <f>SUM(U108:Z108) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -7979,7 +8010,7 @@
         <v>2</v>
       </c>
       <c r="AA109" s="2">
-        <f>SUM(U109:Z109) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -8036,7 +8067,7 @@
         <v>10</v>
       </c>
       <c r="AA110" s="2">
-        <f>SUM(U110:Z110) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8102,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="AA111" s="2">
-        <f>SUM(U111:Z111) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB111" s="4"/>
@@ -8163,7 +8194,7 @@
         <v>10</v>
       </c>
       <c r="AA112" s="2">
-        <f>SUM(U112:Z112) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB112" s="4">
@@ -8229,7 +8260,7 @@
         <v>10</v>
       </c>
       <c r="AA113" s="2">
-        <f>SUM(U113:Z113) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB113" s="4">
@@ -8295,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="AA114" s="2">
-        <f>SUM(U114:Z114) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB114" s="4">
@@ -8355,7 +8386,7 @@
         <v>10</v>
       </c>
       <c r="AA115" s="2">
-        <f>SUM(U115:Z115) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB115" s="4">
@@ -8421,7 +8452,7 @@
         <v>10</v>
       </c>
       <c r="AA116" s="2">
-        <f>SUM(U116:Z116) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB116" s="4">
@@ -8484,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="AA117" s="2">
-        <f>SUM(U117:Z117) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB117" s="4">
@@ -8553,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="AA118" s="2">
-        <f>SUM(U118:Z118) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB118" s="4">
@@ -8616,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="AA119" s="2">
-        <f>SUM(U119:Z119) * 10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -8679,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="AA120" s="2">
-        <f>SUM(U120:Z120) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -8748,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="AA121" s="2">
-        <f>SUM(U121:Z121) * 10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AB121" s="2">
@@ -8820,7 +8851,7 @@
         <v>2</v>
       </c>
       <c r="AA122" s="2">
-        <f>SUM(U122:Z122) * 10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AB122" s="2">
@@ -8892,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="AA123" s="2">
-        <f>SUM(U123:Z123) * 10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AB123" s="2">
@@ -8958,7 +8989,7 @@
         <v>3</v>
       </c>
       <c r="AA124" s="2">
-        <f>SUM(U124:Z124) * 10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AB124" s="2">
@@ -9024,7 +9055,7 @@
         <v>5</v>
       </c>
       <c r="AA125" s="2">
-        <f>SUM(U125:Z125) * 10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AB125" s="2">
@@ -9084,7 +9115,7 @@
         <v>10</v>
       </c>
       <c r="AA126" s="2">
-        <f>SUM(U126:Z126) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB126" s="2">
@@ -9141,7 +9172,7 @@
         <v>10</v>
       </c>
       <c r="AA127" s="2">
-        <f>SUM(U127:Z127) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB127" s="2">
@@ -9198,7 +9229,7 @@
         <v>10</v>
       </c>
       <c r="AA128" s="2">
-        <f>SUM(U128:Z128) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB128" s="2">
@@ -9261,7 +9292,7 @@
         <v>10</v>
       </c>
       <c r="AA129" s="2">
-        <f>SUM(U129:Z129) * 10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB129" s="2">
@@ -9333,7 +9364,7 @@
         <v>4</v>
       </c>
       <c r="AA130" s="2">
-        <f>SUM(U130:Z130) * 10</f>
+        <f t="shared" ref="AA130:AA193" si="2">SUM(U130:Z130) * 10</f>
         <v>40</v>
       </c>
       <c r="AB130" s="2">
@@ -9402,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="AA131" s="2">
-        <f>SUM(U131:Z131) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB131" s="2">
@@ -9465,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="AA132" s="2">
-        <f>SUM(U132:Z132) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB132" s="2">
@@ -9528,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="AA133" s="2">
-        <f>SUM(U133:Z133) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB133" s="2">
@@ -9597,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="AA134" s="2">
-        <f>SUM(U134:Z134) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB134" s="2">
@@ -9660,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="AA135" s="2">
-        <f>SUM(U135:Z135) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB135" s="2">
@@ -9729,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="AA136" s="2">
-        <f>SUM(U136:Z136) * 10</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB136" s="2">
@@ -9795,7 +9826,7 @@
         <v>7</v>
       </c>
       <c r="AA137" s="2">
-        <f>SUM(U137:Z137) * 10</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="AB137" s="2">
@@ -9852,7 +9883,7 @@
         <v>10</v>
       </c>
       <c r="AA138" s="2">
-        <f>SUM(U138:Z138) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9909,7 +9940,7 @@
         <v>10</v>
       </c>
       <c r="AA139" s="2">
-        <f>SUM(U139:Z139) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9975,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="AA140" s="2">
-        <f>SUM(U140:Z140) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -10035,7 +10066,7 @@
         <v>10</v>
       </c>
       <c r="AA141" s="2">
-        <f>SUM(U141:Z141) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10095,7 +10126,7 @@
         <v>10</v>
       </c>
       <c r="AA142" s="2">
-        <f>SUM(U142:Z142) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10158,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="AA143" s="2">
-        <f>SUM(U143:Z143) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -10221,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="AA144" s="2">
-        <f>SUM(U144:Z144) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -10281,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="AA145" s="2">
-        <f>SUM(U145:Z145) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -10344,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="AA146" s="2">
-        <f>SUM(U146:Z146) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -10407,7 +10438,7 @@
         <v>4</v>
       </c>
       <c r="AA147" s="2">
-        <f>SUM(U147:Z147) * 10</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AB147" s="2">
@@ -10473,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="AA148" s="2">
-        <f>SUM(U148:Z148) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB148" s="2">
@@ -10542,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="AA149" s="2">
-        <f>SUM(U149:Z149) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB149" s="2">
@@ -10608,7 +10639,7 @@
         <v>1</v>
       </c>
       <c r="AA150" s="2">
-        <f>SUM(U150:Z150) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB150" s="2">
@@ -10674,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="AA151" s="2">
-        <f>SUM(U151:Z151) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB151" s="2">
@@ -10743,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="AA152" s="2">
-        <f>SUM(U152:Z152) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB152" s="2">
@@ -10806,7 +10837,7 @@
         <v>5</v>
       </c>
       <c r="AA153" s="2">
-        <f>SUM(U153:Z153) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB153" s="2">
@@ -10872,7 +10903,7 @@
         <v>5</v>
       </c>
       <c r="AA154" s="2">
-        <f>SUM(U154:Z154) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB154" s="2">
@@ -10938,7 +10969,7 @@
         <v>5</v>
       </c>
       <c r="AA155" s="2">
-        <f>SUM(U155:Z155) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB155" s="2">
@@ -11007,7 +11038,7 @@
         <v>3</v>
       </c>
       <c r="AA156" s="2">
-        <f>SUM(U156:Z156) * 10</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB156" s="2">
@@ -11070,7 +11101,7 @@
         <v>10</v>
       </c>
       <c r="AA157" s="2">
-        <f>SUM(U157:Z157) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11133,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="AA158" s="2">
-        <f>SUM(U158:Z158) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -11190,7 +11221,7 @@
         <v>10</v>
       </c>
       <c r="AA159" s="2">
-        <f>SUM(U159:Z159) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11247,7 +11278,7 @@
         <v>10</v>
       </c>
       <c r="AA160" s="2">
-        <f>SUM(U160:Z160) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11310,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="AA161" s="2">
-        <f>SUM(U161:Z161) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -11367,7 +11398,7 @@
         <v>10</v>
       </c>
       <c r="AA162" s="2">
-        <f>SUM(U162:Z162) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11427,7 +11458,7 @@
         <v>10</v>
       </c>
       <c r="AA163" s="2">
-        <f>SUM(U163:Z163) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11490,7 +11521,7 @@
         <v>10</v>
       </c>
       <c r="AA164" s="2">
-        <f>SUM(U164:Z164) * 10</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AB164" s="2">
@@ -11556,7 +11587,7 @@
         <v>8</v>
       </c>
       <c r="AA165" s="2">
-        <f>SUM(U165:Z165) * 10</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="AB165" s="2">
@@ -11622,7 +11653,7 @@
         <v>2</v>
       </c>
       <c r="AA166" s="2">
-        <f>SUM(U166:Z166) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB166" s="2">
@@ -11685,7 +11716,7 @@
         <v>5</v>
       </c>
       <c r="AA167" s="2">
-        <f>SUM(U167:Z167) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB167" s="2">
@@ -11754,7 +11785,7 @@
         <v>5</v>
       </c>
       <c r="AA168" s="2">
-        <f>SUM(U168:Z168) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB168" s="2">
@@ -11820,7 +11851,7 @@
         <v>4</v>
       </c>
       <c r="AA169" s="2">
-        <f>SUM(U169:Z169) * 10</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AB169" s="2">
@@ -11886,7 +11917,7 @@
         <v>6</v>
       </c>
       <c r="AA170" s="2">
-        <f>SUM(U170:Z170) * 10</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB170" s="2">
@@ -11952,7 +11983,7 @@
         <v>6</v>
       </c>
       <c r="AA171" s="2">
-        <f>SUM(U171:Z171) * 10</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB171" s="2">
@@ -12018,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="AA172" s="2">
-        <f>SUM(U172:Z172) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -12075,7 +12106,7 @@
         <v>10</v>
       </c>
       <c r="AA173" s="2">
-        <f>SUM(U173:Z173) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12135,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="AA174" s="2">
-        <f>SUM(U174:Z174) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -12192,7 +12223,7 @@
         <v>10</v>
       </c>
       <c r="AA175" s="2">
-        <f>SUM(U175:Z175) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12258,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="AA176" s="2">
-        <f>SUM(U176:Z176) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -12315,7 +12346,7 @@
         <v>10</v>
       </c>
       <c r="AA177" s="2">
-        <f>SUM(U177:Z177) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12378,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="AA178" s="2">
-        <f>SUM(U178:Z178) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -12441,7 +12472,7 @@
         <v>6</v>
       </c>
       <c r="AA179" s="2">
-        <f>SUM(U179:Z179) * 10</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB179" s="2">
@@ -12507,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="AA180" s="2">
-        <f>SUM(U180:Z180) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB180" s="2">
@@ -12576,7 +12607,7 @@
         <v>7</v>
       </c>
       <c r="AA181" s="2">
-        <f>SUM(U181:Z181) * 10</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="AB181" s="2">
@@ -12645,7 +12676,7 @@
         <v>2</v>
       </c>
       <c r="AA182" s="2">
-        <f>SUM(U182:Z182) * 10</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="AB182" s="2">
@@ -12714,7 +12745,7 @@
         <v>6</v>
       </c>
       <c r="AA183" s="2">
-        <f>SUM(U183:Z183) * 10</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB183" s="2">
@@ -12786,7 +12817,7 @@
         <v>2</v>
       </c>
       <c r="AA184" s="2">
-        <f>SUM(U184:Z184) * 10</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AB184" s="2">
@@ -12846,7 +12877,7 @@
         <v>10</v>
       </c>
       <c r="AA185" s="2">
-        <f>SUM(U185:Z185) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB185" s="2">
@@ -12912,7 +12943,7 @@
         <v>10</v>
       </c>
       <c r="AA186" s="2">
-        <f>SUM(U186:Z186) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB186" s="2">
@@ -12968,12 +12999,12 @@
       <c r="T187" s="2">
         <v>10</v>
       </c>
-      <c r="W187" s="2" t="s">
-        <v>34</v>
+      <c r="W187" s="2">
+        <v>1</v>
       </c>
       <c r="AA187" s="2">
-        <f>SUM(U187:Z187) * 10</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
@@ -13026,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="AA188" s="2">
-        <f>SUM(U188:Z188) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -13092,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="AA189" s="2">
-        <f>SUM(U189:Z189) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -13158,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="AA190" s="2">
-        <f>SUM(U190:Z190) * 10</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -13221,7 +13252,7 @@
         <v>3</v>
       </c>
       <c r="AA191" s="2">
-        <f>SUM(U191:Z191) * 10</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -13290,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="AA192" s="2">
-        <f>SUM(U192:Z192) * 10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB192" s="4">
@@ -13350,7 +13381,7 @@
         <v>10</v>
       </c>
       <c r="AA193" s="2">
-        <f>SUM(U193:Z193) * 10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB193" s="4">
@@ -13413,7 +13444,7 @@
         <v>10</v>
       </c>
       <c r="AA194" s="2">
-        <f>SUM(U194:Z194) * 10</f>
+        <f t="shared" ref="AA194:AA249" si="3">SUM(U194:Z194) * 10</f>
         <v>0</v>
       </c>
       <c r="AB194" s="4">
@@ -13479,7 +13510,7 @@
         <v>10</v>
       </c>
       <c r="AA195" s="2">
-        <f>SUM(U195:Z195) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB195" s="4">
@@ -13542,7 +13573,7 @@
         <v>10</v>
       </c>
       <c r="AA196" s="2">
-        <f>SUM(U196:Z196) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB196" s="4">
@@ -13602,7 +13633,7 @@
         <v>10</v>
       </c>
       <c r="AA197" s="2">
-        <f>SUM(U197:Z197) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13631,7 +13662,7 @@
       <c r="H198" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I198" s="12" t="s">
+      <c r="I198" s="11" t="s">
         <v>33</v>
       </c>
       <c r="J198" s="2" t="s">
@@ -13668,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="AA198" s="2">
-        <f>SUM(U198:Z198) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -13697,7 +13728,7 @@
       <c r="H199" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I199" s="12" t="s">
+      <c r="I199" s="11" t="s">
         <v>33</v>
       </c>
       <c r="J199" s="2" t="s">
@@ -13725,7 +13756,7 @@
         <v>10</v>
       </c>
       <c r="AA199" s="2">
-        <f>SUM(U199:Z199) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13788,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="AA200" s="2">
-        <f>SUM(U200:Z200) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB200" s="2">
@@ -13854,7 +13885,7 @@
         <v>2</v>
       </c>
       <c r="AA201" s="2">
-        <f>SUM(U201:Z201) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AB201" s="2">
@@ -13920,7 +13951,7 @@
         <v>2</v>
       </c>
       <c r="AA202" s="2">
-        <f>SUM(U202:Z202) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AB202" s="2">
@@ -13989,7 +14020,7 @@
         <v>2</v>
       </c>
       <c r="AA203" s="2">
-        <f>SUM(U203:Z203) * 10</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AB203" s="2">
@@ -14055,7 +14086,7 @@
         <v>4</v>
       </c>
       <c r="AA204" s="2">
-        <f>SUM(U204:Z204) * 10</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AB204" s="2">
@@ -14124,7 +14155,7 @@
         <v>3</v>
       </c>
       <c r="AA205" s="2">
-        <f>SUM(U205:Z205) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB205" s="2">
@@ -14196,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AA206" s="2">
-        <f>SUM(U206:Z206) * 10</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AB206" s="2">
@@ -14268,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="AA207" s="2">
-        <f>SUM(U207:Z207) * 10</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AB207" s="2">
@@ -14331,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="AA208" s="2">
-        <f>SUM(U208:Z208) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -14388,7 +14419,7 @@
         <v>10</v>
       </c>
       <c r="AA209" s="2">
-        <f>SUM(U209:Z209) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14451,7 +14482,7 @@
         <v>10</v>
       </c>
       <c r="AA210" s="2">
-        <f>SUM(U210:Z210) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB210" s="4">
@@ -14517,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="AA211" s="2">
-        <f>SUM(U211:Z211) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB211" s="4">
@@ -14586,7 +14617,7 @@
         <v>2</v>
       </c>
       <c r="AA212" s="2">
-        <f>SUM(U212:Z212) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AB212" s="2">
@@ -14655,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="AA213" s="2">
-        <f>SUM(U213:Z213) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB213" s="2">
@@ -14724,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="AA214" s="2">
-        <f>SUM(U214:Z214) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB214" s="2">
@@ -14793,7 +14824,7 @@
         <v>5</v>
       </c>
       <c r="AA215" s="2">
-        <f>SUM(U215:Z215) * 10</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AB215" s="2">
@@ -14862,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="AA216" s="2">
-        <f>SUM(U216:Z216) * 10</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AB216" s="2">
@@ -14934,7 +14965,7 @@
         <v>2</v>
       </c>
       <c r="AA217" s="2">
-        <f>SUM(U217:Z217) * 10</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="AB217" s="2">
@@ -15000,7 +15031,7 @@
         <v>3</v>
       </c>
       <c r="AA218" s="2">
-        <f>SUM(U218:Z218) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB218" s="2">
@@ -15069,7 +15100,7 @@
         <v>2</v>
       </c>
       <c r="AA219" s="2">
-        <f>SUM(U219:Z219) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AB219" s="2">
@@ -15138,7 +15169,7 @@
         <v>10</v>
       </c>
       <c r="AA220" s="2">
-        <f>SUM(U220:Z220) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB220" s="2">
@@ -15210,7 +15241,7 @@
         <v>2</v>
       </c>
       <c r="AA221" s="2">
-        <f>SUM(U221:Z221) * 10</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AB221" s="2">
@@ -15270,7 +15301,7 @@
         <v>10</v>
       </c>
       <c r="AA222" s="2">
-        <f>SUM(U222:Z222) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15336,7 +15367,7 @@
         <v>2</v>
       </c>
       <c r="AA223" s="2">
-        <f>SUM(U223:Z223) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -15399,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="AA224" s="2">
-        <f>SUM(U224:Z224) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -15450,7 +15481,7 @@
         <v>10</v>
       </c>
       <c r="AA225" s="2">
-        <f>SUM(U225:Z225) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15507,7 +15538,7 @@
         <v>10</v>
       </c>
       <c r="AA226" s="2">
-        <f>SUM(U226:Z226) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15570,7 +15601,7 @@
         <v>3</v>
       </c>
       <c r="AA227" s="2">
-        <f>SUM(U227:Z227) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB227" s="2">
@@ -15633,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="AA228" s="2">
-        <f>SUM(U228:Z228) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB228" s="2">
@@ -15699,7 +15730,7 @@
         <v>2</v>
       </c>
       <c r="AA229" s="2">
-        <f>SUM(U229:Z229) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AB229" s="2">
@@ -15759,7 +15790,7 @@
         <v>2</v>
       </c>
       <c r="AA230" s="2">
-        <f>SUM(U230:Z230) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -15825,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="AA231" s="2">
-        <f>SUM(U231:Z231) * 10</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -15879,7 +15910,7 @@
         <v>10</v>
       </c>
       <c r="AA232" s="2">
-        <f>SUM(U232:Z232) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -15939,7 +15970,7 @@
         <v>10</v>
       </c>
       <c r="AA233" s="2">
-        <f>SUM(U233:Z233) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB233" s="4">
@@ -16002,7 +16033,7 @@
         <v>10</v>
       </c>
       <c r="AA234" s="2">
-        <f>SUM(U234:Z234) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB234" s="4">
@@ -16068,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="AA235" s="2">
-        <f>SUM(U235:Z235) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB235" s="4">
@@ -16131,7 +16162,7 @@
         <v>10</v>
       </c>
       <c r="AA236" s="2">
-        <f>SUM(U236:Z236) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB236" s="4">
@@ -16197,7 +16228,7 @@
         <v>1</v>
       </c>
       <c r="AA237" s="2">
-        <f>SUM(U237:Z237) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB237" s="4">
@@ -16257,7 +16288,7 @@
         <v>10</v>
       </c>
       <c r="AA238" s="2">
-        <f>SUM(U238:Z238) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB238" s="4">
@@ -16326,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="AA239" s="2">
-        <f>SUM(U239:Z239) * 10</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AB239" s="4">
@@ -16392,7 +16423,7 @@
         <v>10</v>
       </c>
       <c r="AA240" s="2">
-        <f>SUM(U240:Z240) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB240" s="4">
@@ -16455,7 +16486,7 @@
         <v>10</v>
       </c>
       <c r="AA241" s="2">
-        <f>SUM(U241:Z241) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB241" s="4">
@@ -16515,7 +16546,7 @@
         <v>10</v>
       </c>
       <c r="AA242" s="2">
-        <f>SUM(U242:Z242) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB242" s="4">
@@ -16572,7 +16603,7 @@
         <v>10</v>
       </c>
       <c r="AA243" s="2">
-        <f>SUM(U243:Z243) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16626,7 +16657,7 @@
         <v>10</v>
       </c>
       <c r="AA244" s="2">
-        <f>SUM(U244:Z244) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16683,7 +16714,7 @@
         <v>10</v>
       </c>
       <c r="AA245" s="2">
-        <f>SUM(U245:Z245) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16737,7 +16768,7 @@
         <v>10</v>
       </c>
       <c r="AA246" s="2">
-        <f>SUM(U246:Z246) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16791,7 +16822,7 @@
         <v>10</v>
       </c>
       <c r="AA247" s="2">
-        <f>SUM(U247:Z247) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16845,7 +16876,7 @@
         <v>10</v>
       </c>
       <c r="AA248" s="2">
-        <f>SUM(U248:Z248) * 10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -16908,7 +16939,7 @@
         <v>3</v>
       </c>
       <c r="AA249" s="2">
-        <f>SUM(U249:Z249) * 10</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AB249" s="2">
@@ -17059,16 +17090,16 @@
         <v>98</v>
       </c>
       <c r="AG1" s="5"/>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -31002,7 +31033,7 @@
         <v>3</v>
       </c>
       <c r="AA194" s="2">
-        <f t="shared" ref="AA194:AA257" si="9">SUM(U194:Z194) * 10</f>
+        <f t="shared" ref="AA194:AA249" si="9">SUM(U194:Z194) * 10</f>
         <v>30</v>
       </c>
       <c r="AB194" s="2">
@@ -34245,7 +34276,7 @@
         <v>100</v>
       </c>
       <c r="AC234" s="1">
-        <f t="shared" ref="AC234:AC265" si="12">AB234*1000</f>
+        <f t="shared" ref="AC234:AC247" si="12">AB234*1000</f>
         <v>100000</v>
       </c>
       <c r="AD234" s="1">
